--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3375374296920867</v>
+        <v>0.1684853388725177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001468615359160494</v>
+        <v>5.274091038386048e-81</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3172019416866283</v>
+        <v>0.117096240461918</v>
       </c>
       <c r="C3" t="n">
-        <v>1.036207376278692e-27</v>
+        <v>1.910671634243907e-21</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -494,32 +494,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2089284790533157</v>
+        <v>0.1091879047094211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1446623022686626</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>3.283273870474619e-83</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1842569210954225</v>
+        <v>0.1088578791384627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01932077923668481</v>
+        <v>8.239279720775832e-06</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -530,10 +534,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1625735644899008</v>
+        <v>0.08818973555589024</v>
       </c>
       <c r="C6" t="n">
-        <v>8.022485919842004e-29</v>
+        <v>8.082487121916711e-84</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -548,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1546283771967238</v>
+        <v>0.08029560331662761</v>
       </c>
       <c r="C7" t="n">
-        <v>1.700697208074654e-26</v>
+        <v>2.300620837129312e-73</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -562,14 +566,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1518141541746549</v>
+        <v>0.07503935664432981</v>
       </c>
       <c r="C8" t="n">
-        <v>1.699102183962163e-57</v>
+        <v>8.935549458209395e-89</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -580,14 +584,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1507811152341494</v>
+        <v>0.03678770257206074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06372387559925154</v>
+        <v>0.07371500348522252</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
@@ -598,10 +602,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1352259955439881</v>
+        <v>0.02719966907355557</v>
       </c>
       <c r="C10" t="n">
-        <v>1.306917520573544e-06</v>
+        <v>1.949257218693598e-06</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -612,32 +616,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1206708214111796</v>
+        <v>0.02237042345573299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02992668850844461</v>
+        <v>1.345748677508962e-05</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1144870500427641</v>
+        <v>0.02213634737878659</v>
       </c>
       <c r="C12" t="n">
-        <v>5.580099537391309e-06</v>
+        <v>5.943528573402063e-05</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -648,426 +652,210 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1105809493929226</v>
+        <v>0.0156429249556562</v>
       </c>
       <c r="C13" t="n">
-        <v>3.597685272475999e-43</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3170416506271614</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05640543561262405</v>
+        <v>0.01332801993972657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004717929003210873</v>
+        <v>0.0003944334547001101</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05619092541753336</v>
+        <v>4.196948997726123e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3597565914187785</v>
+        <v>0.9928443374480936</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04913940089339973</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.527163549341465e-11</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02613002396738127</v>
+        <v>-0.00672806109012381</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5689846487190966</v>
+        <v>0.2477804240126735</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01531609867650532</v>
+        <v>-0.008623556413883024</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008131601680331321</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.5386076544784476</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005667437225636757</v>
+        <v>-0.01133689537867223</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4443501954533103</v>
+        <v>0.3489601953373019</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005304783848270657</v>
+        <v>-0.01264644953885741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5300723354317188</v>
+        <v>0.2084733821228939</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>-0.01549867326796006</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2181381103393157</v>
+      </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002024243083227177</v>
+        <v>-0.02673358627255343</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9846386453666478</v>
+        <v>0.1137018530702243</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.008224756685485231</v>
+        <v>-0.02830801333651813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.751863499685852</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>1.453945308693226e-07</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.008383756302990902</v>
+        <v>-0.02906994242095892</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4840182793841674</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>7.652437377483789e-12</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01959287604052085</v>
+        <v>-0.08320836293317704</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1030698552425615</v>
+        <v>0.07941331516577629</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.01984536947243703</v>
+        <v>-0.1389948955640298</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002721629471030269</v>
+        <v>0.01743923231038174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.06009274367824548</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8.037272031567099e-08</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.07176759151850043</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.001726108535444564</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.08080950691701232</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0002360273489851624</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.09391822899690422</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.265813536112988e-07</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.0985781523562192</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0008385484066744078</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1040579367493862</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7.939238578114142e-05</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.1161401432368386</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2162714018163455</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Kurtosis of Rating</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.1202864034239488</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5.758924961718182e-07</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Rating</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.1618347607237786</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.106589494840753e-08</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Skewness of Rating</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.1711024731048895</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.63155595795088e-09</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ndcg@5</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.3344469601133074</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.01095818749568732</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.5294675388500664</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.297990531822182e-05</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>***</t>
         </is>
       </c>
     </row>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2960000000000006</v>
+        <v>0.1682677208212363</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.264234405528467e-66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09822222222222217</v>
+        <v>0.1212678228727573</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.98465007139279e-13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -494,14 +494,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04911111111111158</v>
+        <v>0.1053753278504067</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.969408613694618e-18</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0491111111111114</v>
+        <v>0.1010867541204254</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4.359855533334364e-55</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -530,14 +530,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04911111111111099</v>
+        <v>0.1006825553719108</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.961083735307565e-121</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -548,14 +548,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04911111111111094</v>
+        <v>0.06718096670081082</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.304340467464925e-53</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02455555555555558</v>
+        <v>0.06289239297082985</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.410613990439584e-11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,14 +584,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02455555555555555</v>
+        <v>0.05934185732815137</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0004012135230810572</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -602,14 +602,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0245555555555555</v>
+        <v>0.05282686073552929</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.476944133163369e-44</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -620,14 +620,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02455555555555546</v>
+        <v>0.0503209406023828</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.756143330401118e-06</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -638,286 +638,198 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.575673587391975e-16</v>
+        <v>0.04581186940675921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02749520944366242</v>
+        <v>2.69002835267264e-06</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0.03922865366436765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253620906885678</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.0003157246175244627</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.840950111415168e-16</v>
+        <v>0.0215514358546197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05222799023890129</v>
+        <v>0.2491489690088689</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.412337245047638e-16</v>
+        <v>0.01740742653241278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1699198717853047</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>1.641153985959028e-06</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.163336342344337e-16</v>
+        <v>0.01054122151087101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5818045394314701</v>
+        <v>0.636693928407006</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.677613769070831e-16</v>
+        <v>0.004261309676521404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2970857370922155</v>
+        <v>0.8170930628583062</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>-0.002649121818615843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5404656810267265</v>
+        <v>0.4729903845057094</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.05311331771918e-16</v>
+        <v>-0.003780152294385658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3591692711301345</v>
+        <v>0.7799763273974888</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.52655665885959e-16</v>
+        <v>-0.04090926882058667</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8843952132055773</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.008310453925751853</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>-0.0513833640256063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9715955281374125</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.0001738196530145852</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.064686533380765e-16</v>
+        <v>-0.07472526108770046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.69141350402432</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.00010873626364705</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.804112415015879e-16</v>
+        <v>-0.1843785681133646</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6499721928135728</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.821459649775647e-16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.504691046214877</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-2.220446049250313e-16</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5140684912027838</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-3.95516952522712e-16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.550588497849832</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-4.024558464266192e-16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5726230888533291</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>popularitypercentage@5</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-5.551115123125783e-16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.07703227595860056</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-6.106226635438361e-16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.4790385371488071</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-7.374743177246401e-16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1202811234365892</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-1.249000902703301e-15</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.06434606845587958</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>5.200240237896049e-14</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,68 +458,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1682677208212363</v>
+        <v>127196675657.1627</v>
       </c>
       <c r="C2" t="n">
-        <v>1.264234405528467e-66</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303910564</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1212678228727573</v>
+        <v>127196675657.1198</v>
       </c>
       <c r="C3" t="n">
-        <v>5.98465007139279e-13</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303912168</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1053753278504067</v>
+        <v>0.1584466679378452</v>
       </c>
       <c r="C4" t="n">
-        <v>9.969408613694618e-18</v>
+        <v>0.003225918675712088</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1010867541204254</v>
+        <v>0.1278970590807847</v>
       </c>
       <c r="C5" t="n">
-        <v>4.359855533334364e-55</v>
+        <v>1.358750937278038e-10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -530,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1006825553719108</v>
+        <v>0.06239364566684574</v>
       </c>
       <c r="C6" t="n">
-        <v>5.961083735307565e-121</v>
+        <v>0.0001867888350857932</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -548,288 +540,284 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06718096670081082</v>
+        <v>0.03286039572573429</v>
       </c>
       <c r="C7" t="n">
-        <v>3.304340467464925e-53</v>
+        <v>0.02150707099135269</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06289239297082985</v>
+        <v>0.03091721455887685</v>
       </c>
       <c r="C8" t="n">
-        <v>1.410613990439584e-11</v>
+        <v>0.001276107560843811</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05934185732815137</v>
+        <v>0.02046687682415484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004012135230810572</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3271425958715881</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05282686073552929</v>
+        <v>0.01605190007677026</v>
       </c>
       <c r="C10" t="n">
-        <v>6.476944133163369e-44</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4820533786187839</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0503209406023828</v>
+        <v>0.01400423692656907</v>
       </c>
       <c r="C11" t="n">
-        <v>5.756143330401118e-06</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4500871787512734</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04581186940675921</v>
+        <v>0.013316026415644</v>
       </c>
       <c r="C12" t="n">
-        <v>2.69002835267264e-06</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.49749800205985</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03922865366436765</v>
+        <v>0.01197477918450193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003157246175244627</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2355338280571591</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0215514358546197</v>
+        <v>0.004522620520149609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2491489690088689</v>
+        <v>0.6629522921185196</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01740742653241278</v>
+        <v>-0.02020245507728655</v>
       </c>
       <c r="C15" t="n">
-        <v>1.641153985959028e-06</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.246987258185049</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01054122151087101</v>
+        <v>-0.02351314049408591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.636693928407006</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.0002051180439762931</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004261309676521404</v>
+        <v>-0.03433264308707863</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8170930628583062</v>
+        <v>0.08783921558172038</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.002649121818615843</v>
+        <v>-0.05082620357188317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4729903845057094</v>
+        <v>0.076220055009684</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003780152294385658</v>
+        <v>-0.1942948951402504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7799763273974888</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>3.910174726341895e-14</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04090926882058667</v>
+        <v>-26304771682.87946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008310453925751853</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3860885303924064</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0513833640256063</v>
+        <v>-26304771682.90724</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001738196530145852</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303919054</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07472526108770046</v>
+        <v>-26304771682.91965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00010873626364705</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303916837</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1843785681133646</v>
+        <v>-39110967622.66479</v>
       </c>
       <c r="C23" t="n">
-        <v>5.200240237896049e-14</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303928127</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dataset_ml1m</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-39110967622.79883</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3860885303911976</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>const</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-61780936351.25394</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3860885303921789</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127196675657.1627</v>
+        <v>102698210491.1156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3860885303910564</v>
+        <v>0.3951294497719184</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127196675657.1198</v>
+        <v>102698210491.0729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3860885303912168</v>
+        <v>0.3951294497721151</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1584466679378452</v>
+        <v>0.1595061909769637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003225918675712088</v>
+        <v>0.00302622650439204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1278970590807847</v>
+        <v>0.1438957297795987</v>
       </c>
       <c r="C5" t="n">
-        <v>1.358750937278038e-10</v>
+        <v>1.643182188182107e-23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06239364566684574</v>
+        <v>0.06639223282065441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001867888350857932</v>
+        <v>4.936014710540167e-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -540,284 +540,270 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03286039572573429</v>
+        <v>0.0328531479636862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02150707099135269</v>
+        <v>0.0005169802572104968</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03091721455887685</v>
+        <v>0.02957200743720428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001276107560843811</v>
+        <v>0.03474988037683379</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02046687682415484</v>
+        <v>0.02441748536790913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3271425958715881</v>
+        <v>0.1545265360032246</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01605190007677026</v>
+        <v>0.02032981841270298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4820533786187839</v>
+        <v>0.330498651642595</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01400423692656907</v>
+        <v>0.009364009928853181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4500871787512734</v>
+        <v>0.3247475645771581</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.013316026415644</v>
+        <v>0.009096421778724412</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49749800205985</v>
+        <v>0.3515714970912474</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01197477918450193</v>
+        <v>0.006026537854608091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2355338280571591</v>
+        <v>0.7751437378848389</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004522620520149609</v>
+        <v>0.002502629430201429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6629522921185196</v>
+        <v>0.8729977999491338</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02020245507728655</v>
+        <v>-0.02317140456976889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246987258185049</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0.0002527150370062306</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02351314049408591</v>
+        <v>-0.03529721057519514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002051180439762931</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.07902447548726599</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03433264308707863</v>
+        <v>-0.05459011929680031</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08783921558172038</v>
+        <v>0.05529109826124774</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.05082620357188317</v>
+        <v>-0.2033245274686142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.076220055009684</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>1.173176433416854e-16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1942948951402504</v>
+        <v>-20741315368.9111</v>
       </c>
       <c r="C19" t="n">
-        <v>3.910174726341895e-14</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3951294497735898</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-26304771682.87946</v>
+        <v>-20741315368.93851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3860885303924064</v>
+        <v>0.395129449772966</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-26304771682.90724</v>
+        <v>-20741315368.95157</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3860885303919054</v>
+        <v>0.3951294497726705</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-26304771682.91965</v>
+        <v>-30931848555.49377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3860885303916837</v>
+        <v>0.3951294497740404</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-39110967622.66479</v>
+        <v>-30931848555.62001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3860885303928127</v>
+        <v>0.3951294497721284</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-39110967622.79883</v>
+        <v>-51025046566.35547</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3860885303911976</v>
+        <v>0.3951294497732551</v>
       </c>
       <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-61780936351.25394</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.3860885303921789</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Value_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,60 +458,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102698210491.1156</v>
+        <v>0.16634273672879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3951294497719184</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.01653890287907109</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102698210491.0729</v>
+        <v>0.151223602818587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3951294497721151</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>2.026820315819761e-15</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1595061909769637</v>
+        <v>0.1338094798345106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00302622650439204</v>
+        <v>1.804832398136049e-05</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1438957297795987</v>
+        <v>0.111131477963565</v>
       </c>
       <c r="C5" t="n">
-        <v>1.643182188182107e-23</v>
+        <v>1.542268147370768e-06</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -522,14 +530,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06639223282065441</v>
+        <v>0.07689560413496224</v>
       </c>
       <c r="C6" t="n">
-        <v>4.936014710540167e-05</v>
+        <v>1.056841044494637e-09</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -540,120 +548,124 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0328531479636862</v>
+        <v>0.06765208752621001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005169802572104968</v>
+        <v>0.001312039577008569</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02957200743720428</v>
+        <v>0.03423587382860172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03474988037683379</v>
+        <v>0.002525976477343768</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02441748536790913</v>
+        <v>0.02999334840209232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1545265360032246</v>
+        <v>0.2644848152916993</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02032981841270298</v>
+        <v>0.02993688330486002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.330498651642595</v>
+        <v>0.09646404153032533</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009364009928853181</v>
+        <v>0.02645172996171173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3247475645771581</v>
+        <v>0.230566067969001</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.009096421778724412</v>
+        <v>0.02596603746260353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3515714970912474</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.03316685805473615</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.006026537854608091</v>
+        <v>0.0103571328724483</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7751437378848389</v>
+        <v>0.4050291809514628</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002502629430201429</v>
+        <v>0.01021531086090074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8729977999491338</v>
+        <v>0.4037619092439281</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
@@ -664,146 +676,100 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02317140456976889</v>
+        <v>0.006200088587464818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002527150370062306</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2209968724063879</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03529721057519514</v>
+        <v>0.002432769186862443</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07902447548726599</v>
+        <v>0.9281880390242319</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05459011929680031</v>
+        <v>0.001230206406261689</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05529109826124774</v>
+        <v>0.9512779229844177</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2033245274686142</v>
+        <v>-0.01665772912602233</v>
       </c>
       <c r="C18" t="n">
-        <v>1.173176433416854e-16</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5226347196459827</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-20741315368.9111</v>
+        <v>-0.02267800187094642</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3951294497735898</v>
+        <v>0.6063820524335202</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-20741315368.93851</v>
+        <v>-0.05571506592936905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.395129449772966</v>
+        <v>0.1289050003889046</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-20741315368.95157</v>
+        <v>-0.216596339591008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3951294497726705</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-30931848555.49377</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3951294497740404</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Dataset_ml1m</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-30931848555.62001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3951294497721284</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-51025046566.35547</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.3951294497732551</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>1.723906276974184e-11</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
